--- a/data/trans_bre/P29A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-35.86839323896674</v>
+        <v>-35.63314952361132</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-38.26425179981648</v>
+        <v>-38.27400876566802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-36.63375956751697</v>
+        <v>-36.81263853768157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-39.73329115384242</v>
+        <v>-40.57248399617755</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7838766736347598</v>
+        <v>-0.7776027697800704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7453559938351517</v>
+        <v>-0.7488835102278603</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7660621913948593</v>
+        <v>-0.7678381410776847</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8335121499332317</v>
+        <v>-0.8332542281351868</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-28.91204493397885</v>
+        <v>-28.75509339339873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-30.50563736231726</v>
+        <v>-30.79807651681275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-27.93973961223268</v>
+        <v>-28.25735007928852</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-31.27108460657256</v>
+        <v>-31.31444712582074</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.6968466666941953</v>
+        <v>-0.6904214563566214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.6557934490358439</v>
+        <v>-0.6621324237619166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.6540870468606272</v>
+        <v>-0.6615797326796802</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.7471247530667618</v>
+        <v>-0.7486039988951844</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-23.91428878848857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-21.22043479188592</v>
+        <v>-21.22043479188591</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4787614237734148</v>
@@ -749,7 +749,7 @@
         <v>-0.407860960037534</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4508971628056822</v>
+        <v>-0.4508971628056821</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-32.09063103652061</v>
+        <v>-31.96697841152996</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-31.23455703688224</v>
+        <v>-31.16129430059025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-27.18783179527082</v>
+        <v>-27.05953707574531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-23.88554926158493</v>
+        <v>-24.45190955734343</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5224128945359637</v>
+        <v>-0.5197522325866063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5318919274024251</v>
+        <v>-0.5313452128658924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4481567052233081</v>
+        <v>-0.4512722691813866</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4939107684770541</v>
+        <v>-0.499995576372785</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-25.55659351224043</v>
+        <v>-25.46288937025163</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-24.7609071490319</v>
+        <v>-24.65901576033945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-20.5914733046388</v>
+        <v>-20.78578400008941</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-18.0355542393671</v>
+        <v>-18.32159088658758</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4353956386608299</v>
+        <v>-0.4324267865317412</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4435568101636882</v>
+        <v>-0.4428336251276261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3578747827649671</v>
+        <v>-0.3647840515872834</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3973562354642052</v>
+        <v>-0.4066028067770256</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-17.92021598510356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-14.85068822641894</v>
+        <v>-14.85068822641893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3654808429949792</v>
@@ -849,7 +849,7 @@
         <v>-0.2650202263414699</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2871392960165894</v>
+        <v>-0.2871392960165893</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-28.25734149864421</v>
+        <v>-28.04766337455008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.41474815202369</v>
+        <v>-26.45475213354476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.43480732056481</v>
+        <v>-23.27889450179313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-19.87242846034528</v>
+        <v>-19.79989603922287</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4502825017037141</v>
+        <v>-0.4487244811750218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3909276905991193</v>
+        <v>-0.3920452598073516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3474553902088031</v>
+        <v>-0.3362773761751469</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3659280226402353</v>
+        <v>-0.3620956336645849</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-15.46908942356987</v>
+        <v>-15.33993737198895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-12.81622964201093</v>
+        <v>-12.90305602404205</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.68567365549375</v>
+        <v>-11.43427702208891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.960619762021665</v>
+        <v>-9.95825644302032</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2709594709949003</v>
+        <v>-0.2666017410715163</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2077059903932366</v>
+        <v>-0.203700243399747</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1815991256978631</v>
+        <v>-0.1832794727021431</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2029189751345321</v>
+        <v>-0.1964745682178709</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-32.9039712831316</v>
+        <v>-32.57099024360622</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-32.55851253214973</v>
+        <v>-32.68980848206491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-28.84220434819582</v>
+        <v>-28.53564269848296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-25.65128291680008</v>
+        <v>-25.80864347390871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5862193734478314</v>
+        <v>-0.583005567401313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5710043618913707</v>
+        <v>-0.5720004721047066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4927567851489679</v>
+        <v>-0.4913412795088202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5246532007644007</v>
+        <v>-0.5231489690368987</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-28.10554821506487</v>
+        <v>-28.19905703065165</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-27.92863360230981</v>
+        <v>-28.08348383239134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-23.96837281457585</v>
+        <v>-23.68764180019446</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-21.11507708937271</v>
+        <v>-21.0515744806731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5215860593631899</v>
+        <v>-0.5233598355760218</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5097231564983573</v>
+        <v>-0.5119457706894581</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4252507424225806</v>
+        <v>-0.4257516200438218</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4576939933398453</v>
+        <v>-0.4551384771121778</v>
       </c>
     </row>
     <row r="16">
